--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha5.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H2">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N2">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04338341770511111</v>
+        <v>0.1129666232943333</v>
       </c>
       <c r="R2">
-        <v>0.390450759346</v>
+        <v>1.016699609649</v>
       </c>
       <c r="S2">
         <v>1</v>
